--- a/determine_pdf/Lucca/results_openai_gpt-4o-mini/det_00041_15-01-2025_checklist_results.xlsx
+++ b/determine_pdf/Lucca/results_openai_gpt-4o-mini/det_00041_15-01-2025_checklist_results.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : SI, la determina specifica che il contratto di accordo quadro è stato stipulato mediante scambio di corrispondenza commerciale, tramite posta elettronica certificata.</t>
+          <t>RISPOSTA GENERALE: **SI**, la determina specifica che il contratto di accordo quadro è stato stipulato mediante scambio di corrispondenza commerciale, tramite posta elettronica certificata.</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : SI, [La determina fa riferimento alla determinazione dirigenziale n. 2110 del 21/09/2023 per l'assegnazione dell'accordo quadro e cita le normative pertinenti come il D.Lgs. n. 36/2023 e la L. n. 241/1990.]</t>
+          <t>RISPOSTA GENERALE: **SI**, sono presenti i riferimenti alla Determina Dirigenziale n. 2110 del 21/09/2023 per l'affidamento dell'accordo quadro e alla normativa pertinente, come il D.Lgs. n. 36/2023 e la L. n. 241/1990.</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: **NO**, [ANOMALIA RILEVATA: GRAVE]. Nella determina non sono presenti i criteri di selezione dell'operatore economico, né riferimenti a procedure di gara o affidamento diretto. Non viene menzionato il possesso di esperienze pregresse idonee all'esecuzione delle prestazioni contrattuali, come richiesto dall'art. 50, comma 1 del D.Lgs. n. 36/2023.</t>
+          <t>RISPOSTA GENERALE: **NO**, [ANOMALIA RILEVATA: GRAVE. Nella determina non sono presenti riferimenti chiari ai criteri di selezione dell'operatore economico, né si fa menzione di una gara o di un affidamento diretto con documentate esperienze pregresse, come richiesto dall'art. 50, comma 1 del D.Lgs. n. 36/2023. Questo potrebbe compromettere la regolarità dell'affidamento dei servizi.]</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : NO, I termini di conclusione della prestazione/lavori non sono nominati nella determina. Non è specificato un termine preciso entro il quale i lavori devono essere completati.</t>
+          <t>RISPOSTA GENERALE : NO, non sono specificati i termini di conclusione della prestazione/lavori nella determina.</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : **SI**, sono specificati i fondi per la spesa complessiva di € 4.992,89, che è soggetta agli obblighi di tracciabilità dei flussi finanziari ai sensi della L. n. 136/2010.</t>
+          <t>RISPOSTA GENERALE: **SI**, i fondi sono specificati nella determina e si fa riferimento alla spesa complessiva di € 4.992,89, che è soggetta agli obblighi di tracciabilità dei flussi finanziari ai sensi della L. n. 136/2010.</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE : NON PERTINENTE, [La determina non tratta esplicitamente dati personali né fa riferimento alla normativa sulla privacy, quindi non è pertinente al controllo richiesto.]</t>
+          <t>RISPOSTA GENERALE : NON PERTINENTE, [La determina non tratta specificamente dati personali né fa riferimento alla normativa sulla privacy, quindi non è pertinente al controllo richiesto.]</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RISPOSTA GENERALE: NON PERTINENTE, [Nella determina non si fa riferimento all'utilizzo di una piattaforma di e-procurement come Start o Consip Mepa, quindi non è possibile verificare se è stata utilizzata per la pubblicità su Banca Dati Nazionale/PCT ANAC.]</t>
+          <t>RISPOSTA GENERALE: NON PERTINENTE, [Nella determina non si fa riferimento all'utilizzo di una piattaforma di e-procurement come Start o Consip Mepa, pertanto il punto non è pertinente al contenuto della determina.]</t>
         </is>
       </c>
     </row>
